--- a/Improgress/2. Artifact and Deliverable/Test case/K22T1_TeamBDS_ TC_Xemchinhsachcongty.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Test case/K22T1_TeamBDS_ TC_Xemchinhsachcongty.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Test case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E10B79-AA1A-4CD3-A4FC-899C2E478F9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5EBCACA-26CD-4CCE-BB4A-4776CA65952C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DC4DB269-603C-4B5B-A498-B166C8A18B92}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{DC4DB269-603C-4B5B-A498-B166C8A18B92}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="2" r:id="rId1"/>
@@ -1188,6 +1188,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1209,30 +1233,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1293,65 +1293,65 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1676,7 +1676,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1692,31 +1692,31 @@
   <sheetData>
     <row r="1" spans="2:5" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="2:5" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
     </row>
     <row r="5" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="53"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
@@ -1789,21 +1789,21 @@
       <c r="E11" s="8"/>
     </row>
     <row r="12" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="63"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
     </row>
     <row r="13" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="53"/>
     </row>
     <row r="15" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="20" t="s">
@@ -1812,54 +1812,54 @@
       <c r="C15" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="53" t="s">
+      <c r="D15" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="54"/>
+      <c r="E15" s="62"/>
     </row>
     <row r="16" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="64"/>
     </row>
     <row r="17" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="56"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="64"/>
     </row>
     <row r="18" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="64"/>
     </row>
     <row r="19" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="56"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="64"/>
     </row>
     <row r="20" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="50"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="52"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B14:E14"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1886,8 +1886,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="B4" s="66"/>
       <c r="C4" s="67">
-        <v>43685</v>
+        <v>43567</v>
       </c>
       <c r="D4" s="68"/>
       <c r="E4" s="28" t="s">
@@ -2158,17 +2158,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="103" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="4"/>
@@ -2204,32 +2204,32 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
     </row>
     <row r="5" spans="1:9" s="46" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="87">
+      <c r="A5" s="88">
         <v>1</v>
       </c>
-      <c r="B5" s="90" t="s">
+      <c r="B5" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="93" t="s">
+      <c r="C5" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="96" t="s">
+      <c r="D5" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="99" t="s">
+      <c r="E5" s="85" t="s">
         <v>75</v>
       </c>
       <c r="F5" s="47">
@@ -2244,11 +2244,11 @@
       </c>
     </row>
     <row r="6" spans="1:9" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="88"/>
-      <c r="B6" s="91"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="100"/>
+      <c r="A6" s="89"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="86"/>
       <c r="F6" s="47">
         <v>2</v>
       </c>
@@ -2261,11 +2261,11 @@
       </c>
     </row>
     <row r="7" spans="1:9" s="46" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="89"/>
-      <c r="B7" s="92"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="101"/>
+      <c r="A7" s="90"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="87"/>
       <c r="F7" s="47">
         <v>3</v>
       </c>
@@ -2278,19 +2278,19 @@
       </c>
     </row>
     <row r="8" spans="1:9" s="46" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="87">
+      <c r="A8" s="88">
         <v>2</v>
       </c>
-      <c r="B8" s="93" t="s">
+      <c r="B8" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="93" t="s">
+      <c r="C8" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="96" t="s">
+      <c r="D8" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="99" t="s">
+      <c r="E8" s="85" t="s">
         <v>80</v>
       </c>
       <c r="F8" s="47">
@@ -2305,11 +2305,11 @@
       </c>
     </row>
     <row r="9" spans="1:9" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="88"/>
-      <c r="B9" s="94"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="100"/>
+      <c r="A9" s="89"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="86"/>
       <c r="F9" s="47">
         <v>2</v>
       </c>
@@ -2322,11 +2322,11 @@
       </c>
     </row>
     <row r="10" spans="1:9" s="46" customFormat="1" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="88"/>
-      <c r="B10" s="94"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="97"/>
-      <c r="E10" s="100"/>
+      <c r="A10" s="89"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="86"/>
       <c r="F10" s="47">
         <v>3</v>
       </c>
@@ -2339,11 +2339,11 @@
       </c>
     </row>
     <row r="11" spans="1:9" s="46" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="89"/>
-      <c r="B11" s="94"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="101"/>
+      <c r="A11" s="90"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="87"/>
       <c r="F11" s="47">
         <v>4</v>
       </c>
@@ -2356,17 +2356,17 @@
       </c>
     </row>
     <row r="12" spans="1:9" s="46" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="87">
+      <c r="A12" s="88">
         <v>3</v>
       </c>
-      <c r="B12" s="94"/>
-      <c r="C12" s="93" t="s">
+      <c r="B12" s="92"/>
+      <c r="C12" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="96" t="s">
+      <c r="D12" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="99" t="s">
+      <c r="E12" s="85" t="s">
         <v>81</v>
       </c>
       <c r="F12" s="47">
@@ -2381,11 +2381,11 @@
       </c>
     </row>
     <row r="13" spans="1:9" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="88"/>
-      <c r="B13" s="94"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="100"/>
+      <c r="A13" s="89"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="86"/>
       <c r="F13" s="47">
         <v>2</v>
       </c>
@@ -2398,11 +2398,11 @@
       </c>
     </row>
     <row r="14" spans="1:9" s="46" customFormat="1" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="88"/>
-      <c r="B14" s="94"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="100"/>
+      <c r="A14" s="89"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="86"/>
       <c r="F14" s="47">
         <v>3</v>
       </c>
@@ -2415,11 +2415,11 @@
       </c>
     </row>
     <row r="15" spans="1:9" s="46" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="89"/>
-      <c r="B15" s="94"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="101"/>
+      <c r="A15" s="90"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="87"/>
       <c r="F15" s="47">
         <v>4</v>
       </c>
@@ -2432,17 +2432,17 @@
       </c>
     </row>
     <row r="16" spans="1:9" s="46" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="87">
+      <c r="A16" s="88">
         <v>4</v>
       </c>
-      <c r="B16" s="94"/>
-      <c r="C16" s="93" t="s">
+      <c r="B16" s="92"/>
+      <c r="C16" s="91" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="96" t="s">
+      <c r="D16" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="99" t="s">
+      <c r="E16" s="85" t="s">
         <v>84</v>
       </c>
       <c r="F16" s="47">
@@ -2457,11 +2457,11 @@
       </c>
     </row>
     <row r="17" spans="1:9" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="88"/>
-      <c r="B17" s="94"/>
-      <c r="C17" s="94"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="100"/>
+      <c r="A17" s="89"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="86"/>
       <c r="F17" s="47">
         <v>2</v>
       </c>
@@ -2474,11 +2474,11 @@
       </c>
     </row>
     <row r="18" spans="1:9" s="46" customFormat="1" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="88"/>
-      <c r="B18" s="94"/>
-      <c r="C18" s="94"/>
-      <c r="D18" s="97"/>
-      <c r="E18" s="100"/>
+      <c r="A18" s="89"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="86"/>
       <c r="F18" s="47">
         <v>3</v>
       </c>
@@ -2491,11 +2491,11 @@
       </c>
     </row>
     <row r="19" spans="1:9" s="46" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="89"/>
-      <c r="B19" s="94"/>
-      <c r="C19" s="95"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="101"/>
+      <c r="A19" s="90"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="87"/>
       <c r="F19" s="47">
         <v>4</v>
       </c>
@@ -2508,17 +2508,17 @@
       </c>
     </row>
     <row r="20" spans="1:9" s="46" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="87">
+      <c r="A20" s="88">
         <v>5</v>
       </c>
-      <c r="B20" s="94"/>
-      <c r="C20" s="93" t="s">
+      <c r="B20" s="92"/>
+      <c r="C20" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="D20" s="96" t="s">
+      <c r="D20" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="99" t="s">
+      <c r="E20" s="85" t="s">
         <v>87</v>
       </c>
       <c r="F20" s="47">
@@ -2533,11 +2533,11 @@
       </c>
     </row>
     <row r="21" spans="1:9" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="88"/>
-      <c r="B21" s="94"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="97"/>
-      <c r="E21" s="100"/>
+      <c r="A21" s="89"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="86"/>
       <c r="F21" s="47">
         <v>2</v>
       </c>
@@ -2550,11 +2550,11 @@
       </c>
     </row>
     <row r="22" spans="1:9" s="46" customFormat="1" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="88"/>
-      <c r="B22" s="94"/>
-      <c r="C22" s="94"/>
-      <c r="D22" s="97"/>
-      <c r="E22" s="100"/>
+      <c r="A22" s="89"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="86"/>
       <c r="F22" s="47">
         <v>3</v>
       </c>
@@ -2567,11 +2567,11 @@
       </c>
     </row>
     <row r="23" spans="1:9" s="46" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="89"/>
-      <c r="B23" s="94"/>
-      <c r="C23" s="95"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="101"/>
+      <c r="A23" s="90"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="87"/>
       <c r="F23" s="47">
         <v>4</v>
       </c>
@@ -2584,17 +2584,17 @@
       </c>
     </row>
     <row r="24" spans="1:9" s="46" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="87">
+      <c r="A24" s="88">
         <v>6</v>
       </c>
-      <c r="B24" s="94"/>
-      <c r="C24" s="93" t="s">
+      <c r="B24" s="92"/>
+      <c r="C24" s="91" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="96" t="s">
+      <c r="D24" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="E24" s="99" t="s">
+      <c r="E24" s="85" t="s">
         <v>92</v>
       </c>
       <c r="F24" s="47">
@@ -2609,11 +2609,11 @@
       </c>
     </row>
     <row r="25" spans="1:9" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="88"/>
-      <c r="B25" s="94"/>
-      <c r="C25" s="94"/>
-      <c r="D25" s="97"/>
-      <c r="E25" s="100"/>
+      <c r="A25" s="89"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="86"/>
       <c r="F25" s="47">
         <v>2</v>
       </c>
@@ -2626,11 +2626,11 @@
       </c>
     </row>
     <row r="26" spans="1:9" s="46" customFormat="1" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="88"/>
-      <c r="B26" s="94"/>
-      <c r="C26" s="94"/>
-      <c r="D26" s="97"/>
-      <c r="E26" s="100"/>
+      <c r="A26" s="89"/>
+      <c r="B26" s="92"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="86"/>
       <c r="F26" s="47">
         <v>3</v>
       </c>
@@ -2643,11 +2643,11 @@
       </c>
     </row>
     <row r="27" spans="1:9" s="46" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="89"/>
-      <c r="B27" s="104"/>
-      <c r="C27" s="95"/>
-      <c r="D27" s="98"/>
-      <c r="E27" s="101"/>
+      <c r="A27" s="90"/>
+      <c r="B27" s="97"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="96"/>
+      <c r="E27" s="87"/>
       <c r="F27" s="47">
         <v>4</v>
       </c>
@@ -2660,19 +2660,19 @@
       </c>
     </row>
     <row r="28" spans="1:9" s="46" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="87">
+      <c r="A28" s="88">
         <v>2</v>
       </c>
-      <c r="B28" s="93" t="s">
+      <c r="B28" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="93" t="s">
+      <c r="C28" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="D28" s="96" t="s">
+      <c r="D28" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="E28" s="99" t="s">
+      <c r="E28" s="85" t="s">
         <v>80</v>
       </c>
       <c r="F28" s="47">
@@ -2687,11 +2687,11 @@
       </c>
     </row>
     <row r="29" spans="1:9" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="88"/>
-      <c r="B29" s="94"/>
-      <c r="C29" s="94"/>
-      <c r="D29" s="97"/>
-      <c r="E29" s="100"/>
+      <c r="A29" s="89"/>
+      <c r="B29" s="92"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="86"/>
       <c r="F29" s="47">
         <v>2</v>
       </c>
@@ -2704,11 +2704,11 @@
       </c>
     </row>
     <row r="30" spans="1:9" s="46" customFormat="1" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="88"/>
-      <c r="B30" s="94"/>
-      <c r="C30" s="94"/>
-      <c r="D30" s="97"/>
-      <c r="E30" s="100"/>
+      <c r="A30" s="89"/>
+      <c r="B30" s="92"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="95"/>
+      <c r="E30" s="86"/>
       <c r="F30" s="47">
         <v>3</v>
       </c>
@@ -2721,11 +2721,11 @@
       </c>
     </row>
     <row r="31" spans="1:9" s="46" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="89"/>
-      <c r="B31" s="94"/>
-      <c r="C31" s="95"/>
-      <c r="D31" s="98"/>
-      <c r="E31" s="101"/>
+      <c r="A31" s="90"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="96"/>
+      <c r="E31" s="87"/>
       <c r="F31" s="47">
         <v>4</v>
       </c>
@@ -2738,17 +2738,17 @@
       </c>
     </row>
     <row r="32" spans="1:9" s="46" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="87">
+      <c r="A32" s="88">
         <v>3</v>
       </c>
-      <c r="B32" s="94"/>
-      <c r="C32" s="93" t="s">
+      <c r="B32" s="92"/>
+      <c r="C32" s="91" t="s">
         <v>96</v>
       </c>
-      <c r="D32" s="96" t="s">
+      <c r="D32" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="E32" s="99" t="s">
+      <c r="E32" s="85" t="s">
         <v>81</v>
       </c>
       <c r="F32" s="47">
@@ -2763,11 +2763,11 @@
       </c>
     </row>
     <row r="33" spans="1:9" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="88"/>
-      <c r="B33" s="94"/>
-      <c r="C33" s="94"/>
-      <c r="D33" s="97"/>
-      <c r="E33" s="100"/>
+      <c r="A33" s="89"/>
+      <c r="B33" s="92"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="95"/>
+      <c r="E33" s="86"/>
       <c r="F33" s="47">
         <v>2</v>
       </c>
@@ -2780,11 +2780,11 @@
       </c>
     </row>
     <row r="34" spans="1:9" s="46" customFormat="1" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="88"/>
-      <c r="B34" s="94"/>
-      <c r="C34" s="94"/>
-      <c r="D34" s="97"/>
-      <c r="E34" s="100"/>
+      <c r="A34" s="89"/>
+      <c r="B34" s="92"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="95"/>
+      <c r="E34" s="86"/>
       <c r="F34" s="47">
         <v>3</v>
       </c>
@@ -2797,11 +2797,11 @@
       </c>
     </row>
     <row r="35" spans="1:9" s="46" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="89"/>
-      <c r="B35" s="94"/>
-      <c r="C35" s="95"/>
-      <c r="D35" s="98"/>
-      <c r="E35" s="101"/>
+      <c r="A35" s="90"/>
+      <c r="B35" s="92"/>
+      <c r="C35" s="93"/>
+      <c r="D35" s="96"/>
+      <c r="E35" s="87"/>
       <c r="F35" s="47">
         <v>4</v>
       </c>
@@ -2814,17 +2814,17 @@
       </c>
     </row>
     <row r="36" spans="1:9" s="46" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="87">
+      <c r="A36" s="88">
         <v>4</v>
       </c>
-      <c r="B36" s="94"/>
-      <c r="C36" s="93" t="s">
+      <c r="B36" s="92"/>
+      <c r="C36" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="96" t="s">
+      <c r="D36" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="E36" s="99" t="s">
+      <c r="E36" s="85" t="s">
         <v>84</v>
       </c>
       <c r="F36" s="47">
@@ -2839,11 +2839,11 @@
       </c>
     </row>
     <row r="37" spans="1:9" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="88"/>
-      <c r="B37" s="94"/>
-      <c r="C37" s="94"/>
-      <c r="D37" s="97"/>
-      <c r="E37" s="100"/>
+      <c r="A37" s="89"/>
+      <c r="B37" s="92"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="95"/>
+      <c r="E37" s="86"/>
       <c r="F37" s="47">
         <v>2</v>
       </c>
@@ -2856,11 +2856,11 @@
       </c>
     </row>
     <row r="38" spans="1:9" s="46" customFormat="1" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="88"/>
-      <c r="B38" s="94"/>
-      <c r="C38" s="94"/>
-      <c r="D38" s="97"/>
-      <c r="E38" s="100"/>
+      <c r="A38" s="89"/>
+      <c r="B38" s="92"/>
+      <c r="C38" s="92"/>
+      <c r="D38" s="95"/>
+      <c r="E38" s="86"/>
       <c r="F38" s="47">
         <v>3</v>
       </c>
@@ -2873,11 +2873,11 @@
       </c>
     </row>
     <row r="39" spans="1:9" s="46" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="89"/>
-      <c r="B39" s="94"/>
-      <c r="C39" s="95"/>
-      <c r="D39" s="98"/>
-      <c r="E39" s="101"/>
+      <c r="A39" s="90"/>
+      <c r="B39" s="92"/>
+      <c r="C39" s="93"/>
+      <c r="D39" s="96"/>
+      <c r="E39" s="87"/>
       <c r="F39" s="47">
         <v>4</v>
       </c>
@@ -2890,17 +2890,17 @@
       </c>
     </row>
     <row r="40" spans="1:9" s="46" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="87">
+      <c r="A40" s="88">
         <v>5</v>
       </c>
-      <c r="B40" s="94"/>
-      <c r="C40" s="93" t="s">
+      <c r="B40" s="92"/>
+      <c r="C40" s="91" t="s">
         <v>98</v>
       </c>
-      <c r="D40" s="96" t="s">
+      <c r="D40" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="E40" s="99" t="s">
+      <c r="E40" s="85" t="s">
         <v>87</v>
       </c>
       <c r="F40" s="47">
@@ -2915,11 +2915,11 @@
       </c>
     </row>
     <row r="41" spans="1:9" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="88"/>
-      <c r="B41" s="94"/>
-      <c r="C41" s="94"/>
-      <c r="D41" s="97"/>
-      <c r="E41" s="100"/>
+      <c r="A41" s="89"/>
+      <c r="B41" s="92"/>
+      <c r="C41" s="92"/>
+      <c r="D41" s="95"/>
+      <c r="E41" s="86"/>
       <c r="F41" s="47">
         <v>2</v>
       </c>
@@ -2932,11 +2932,11 @@
       </c>
     </row>
     <row r="42" spans="1:9" s="46" customFormat="1" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="88"/>
-      <c r="B42" s="94"/>
-      <c r="C42" s="94"/>
-      <c r="D42" s="97"/>
-      <c r="E42" s="100"/>
+      <c r="A42" s="89"/>
+      <c r="B42" s="92"/>
+      <c r="C42" s="92"/>
+      <c r="D42" s="95"/>
+      <c r="E42" s="86"/>
       <c r="F42" s="47">
         <v>3</v>
       </c>
@@ -2949,11 +2949,11 @@
       </c>
     </row>
     <row r="43" spans="1:9" s="46" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="89"/>
-      <c r="B43" s="94"/>
-      <c r="C43" s="95"/>
-      <c r="D43" s="98"/>
-      <c r="E43" s="101"/>
+      <c r="A43" s="90"/>
+      <c r="B43" s="92"/>
+      <c r="C43" s="93"/>
+      <c r="D43" s="96"/>
+      <c r="E43" s="87"/>
       <c r="F43" s="47">
         <v>4</v>
       </c>
@@ -2966,17 +2966,17 @@
       </c>
     </row>
     <row r="44" spans="1:9" s="46" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="87">
+      <c r="A44" s="88">
         <v>6</v>
       </c>
-      <c r="B44" s="94"/>
-      <c r="C44" s="93" t="s">
+      <c r="B44" s="92"/>
+      <c r="C44" s="91" t="s">
         <v>99</v>
       </c>
-      <c r="D44" s="96" t="s">
+      <c r="D44" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="E44" s="99" t="s">
+      <c r="E44" s="85" t="s">
         <v>92</v>
       </c>
       <c r="F44" s="47">
@@ -2991,11 +2991,11 @@
       </c>
     </row>
     <row r="45" spans="1:9" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="88"/>
-      <c r="B45" s="94"/>
-      <c r="C45" s="94"/>
-      <c r="D45" s="97"/>
-      <c r="E45" s="100"/>
+      <c r="A45" s="89"/>
+      <c r="B45" s="92"/>
+      <c r="C45" s="92"/>
+      <c r="D45" s="95"/>
+      <c r="E45" s="86"/>
       <c r="F45" s="47">
         <v>2</v>
       </c>
@@ -3008,11 +3008,11 @@
       </c>
     </row>
     <row r="46" spans="1:9" s="46" customFormat="1" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="88"/>
-      <c r="B46" s="94"/>
-      <c r="C46" s="94"/>
-      <c r="D46" s="97"/>
-      <c r="E46" s="100"/>
+      <c r="A46" s="89"/>
+      <c r="B46" s="92"/>
+      <c r="C46" s="92"/>
+      <c r="D46" s="95"/>
+      <c r="E46" s="86"/>
       <c r="F46" s="47">
         <v>3</v>
       </c>
@@ -3025,11 +3025,11 @@
       </c>
     </row>
     <row r="47" spans="1:9" s="46" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="89"/>
-      <c r="B47" s="104"/>
-      <c r="C47" s="95"/>
-      <c r="D47" s="98"/>
-      <c r="E47" s="101"/>
+      <c r="A47" s="90"/>
+      <c r="B47" s="97"/>
+      <c r="C47" s="93"/>
+      <c r="D47" s="96"/>
+      <c r="E47" s="87"/>
       <c r="F47" s="47">
         <v>4</v>
       </c>
@@ -3042,19 +3042,19 @@
       </c>
     </row>
     <row r="48" spans="1:9" s="46" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="87">
+      <c r="A48" s="88">
         <v>21</v>
       </c>
-      <c r="B48" s="90" t="s">
+      <c r="B48" s="99" t="s">
         <v>56</v>
       </c>
-      <c r="C48" s="93" t="s">
+      <c r="C48" s="91" t="s">
         <v>74</v>
       </c>
-      <c r="D48" s="96" t="s">
+      <c r="D48" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="E48" s="96" t="s">
+      <c r="E48" s="94" t="s">
         <v>75</v>
       </c>
       <c r="F48" s="47">
@@ -3069,11 +3069,11 @@
       </c>
     </row>
     <row r="49" spans="1:9" s="40" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="88"/>
-      <c r="B49" s="91"/>
-      <c r="C49" s="94"/>
-      <c r="D49" s="97"/>
-      <c r="E49" s="97"/>
+      <c r="A49" s="89"/>
+      <c r="B49" s="100"/>
+      <c r="C49" s="92"/>
+      <c r="D49" s="95"/>
+      <c r="E49" s="95"/>
       <c r="F49" s="42">
         <v>2</v>
       </c>
@@ -3086,11 +3086,11 @@
       </c>
     </row>
     <row r="50" spans="1:9" s="46" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="88"/>
-      <c r="B50" s="91"/>
-      <c r="C50" s="94"/>
-      <c r="D50" s="97"/>
-      <c r="E50" s="97"/>
+      <c r="A50" s="89"/>
+      <c r="B50" s="100"/>
+      <c r="C50" s="92"/>
+      <c r="D50" s="95"/>
+      <c r="E50" s="95"/>
       <c r="F50" s="41">
         <v>3</v>
       </c>
@@ -3103,11 +3103,11 @@
       </c>
     </row>
     <row r="51" spans="1:9" s="46" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="102"/>
-      <c r="B51" s="103"/>
-      <c r="C51" s="104"/>
-      <c r="D51" s="98"/>
-      <c r="E51" s="98"/>
+      <c r="A51" s="98"/>
+      <c r="B51" s="101"/>
+      <c r="C51" s="97"/>
+      <c r="D51" s="96"/>
+      <c r="E51" s="96"/>
       <c r="F51" s="41">
         <v>4</v>
       </c>
@@ -3121,11 +3121,39 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="E40:E43"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="E48:E51"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="B8:B27"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="D12:D15"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="B28:B47"/>
     <mergeCell ref="C28:C31"/>
@@ -3142,39 +3170,11 @@
     <mergeCell ref="A40:A43"/>
     <mergeCell ref="C40:C43"/>
     <mergeCell ref="D40:D43"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="B8:B27"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="E48:E51"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="E44:E47"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Improgress/2. Artifact and Deliverable/Test case/K22T1_TeamBDS_ TC_Xemchinhsachcongty.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Test case/K22T1_TeamBDS_ TC_Xemchinhsachcongty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Test case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5EBCACA-26CD-4CCE-BB4A-4776CA65952C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8F91BC-813D-4772-91AF-631AFB5CDB01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{DC4DB269-603C-4B5B-A498-B166C8A18B92}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="88">
   <si>
     <t>Author</t>
   </si>
@@ -230,9 +230,6 @@
     <t xml:space="preserve">Trịnh như Phương </t>
   </si>
   <si>
-    <t>TR-BDS-XDSNS-3</t>
-  </si>
-  <si>
     <t xml:space="preserve">User đăng nhập vào App bất Động sản bằng tài khoản cá nhân </t>
   </si>
   <si>
@@ -285,14 +282,6 @@
   </si>
   <si>
     <t>TR-BDS-XCSCT-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Có các mục chính sách  : 
-- Quy định công tác phí 
-- Chế độ lương thưởng
-- Lịch nghỉ lễ 
-- Bổ nhiệm nhân sự 
-- Hoạt động team buidling </t>
   </si>
   <si>
     <t xml:space="preserve">Trong mục thông tin , nhấn chọn chính sách công ty </t>
@@ -306,88 +295,60 @@
 - Hoạt động team buidling </t>
   </si>
   <si>
-    <t xml:space="preserve">Trong chính sách công ty  , nhấn chọn Quy định công tác phí </t>
-  </si>
-  <si>
     <t xml:space="preserve">Hiển thị hình ảnh trong  mục chính sách  : 
 - Quy định công tác phí </t>
   </si>
   <si>
+    <t>Trong chính sách công ty  , nhấn chọn các mục để xem các hình ảnh</t>
+  </si>
+  <si>
+    <t>Hiển thị giao diên các mục chính sách  : 
+- Quy định công tác phí 
+- Chế độ lương thưởng
+- Lịch nghỉ lễ 
+- Bổ nhiệm nhân sự 
+- Hoạt động team buidling 
+….</t>
+  </si>
+  <si>
+    <t>Có các mục chính sách  : 
+- Quy định công tác phí 
+- Chế độ lương thưởng
+- Lịch nghỉ lễ 
+- Bổ nhiệm nhân sự 
+- Hoạt động team buidling …....</t>
+  </si>
+  <si>
+    <t>TR-BDS-XDSNS-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị hình ảnh trong  mục chính sách  : 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trong chính sách công ty  , nhấn chọn chính sách </t>
+  </si>
+  <si>
     <t xml:space="preserve">Có thông tin hình ảnh trong  mục chính sách  : 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quy định công tác phí </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Có thông tin hình ảnh trong  mục chính sách  : 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quy dinh công tác phí </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Có các mục chính sách  : 
 - Quy định công tác phí 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Có thông tin hình ảnh trong  mục chính sách  : 
-- Chế độ lương thưởng 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trong chính sách công ty  , nhấn chọn Chế độ lương thưởng </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiển thị hình ảnh trong  mục chính sách  : 
-Chế độ lương thưởng </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Có thông tin hình ảnh trong  mục chính sách  : 
-- lịch nghĩ lễ 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiển thị hình ảnh trong  mục chính sách  : 
-lịch nghỉ lễ </t>
-  </si>
-  <si>
-    <t>TR-BDS-XCSCT-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Có thông tin hình ảnh trong  mục chính sách  : 
--Bổ nhiệm nhân sự 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trong chính sách công ty  , nhấn chọn Lịch nghỉ lễ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trong chính sách công ty  , nhấn chọn Bổ nhiệm nhân sự </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiển thị hình ảnh trong  mục chính sách  : 
-Bổ nhiệm nhân sự </t>
-  </si>
-  <si>
-    <t>TR-BDS-XCSCT-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Có thông tin hình ảnh trong  mục chính sách  : 
--Hoạt động team buidling 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiển thị hình ảnh trong  mục chính sách  : 
-Hoạt động team buidling </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trong chính sách công ty  , nhấn chọn Hoạt dộng team buiding </t>
-  </si>
-  <si>
-    <t>TR-BDS-XCSCT-7</t>
-  </si>
-  <si>
-    <t>TR-BDS-XCSCT-8</t>
-  </si>
-  <si>
-    <t>TR-BDS-XCSCT-9</t>
-  </si>
-  <si>
-    <t>TR-BDS-XCSCT-10</t>
-  </si>
-  <si>
-    <t>TR-BDS-XCSCT-11</t>
-  </si>
-  <si>
-    <t>Trong chính sách công ty  , nhấn chọn các mục để xem các hình ảnh</t>
+- Chế độ lương thưởng
+- Lịch nghỉ lễ 
+- Bổ nhiệm nhân sự 
+- Hoạt động team buidling ….. </t>
   </si>
 </sst>
 </file>
@@ -1188,6 +1149,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1212,27 +1194,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1293,6 +1254,39 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1302,56 +1296,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1692,31 +1653,31 @@
   <sheetData>
     <row r="1" spans="2:5" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
     </row>
     <row r="3" spans="2:5" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="57" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
+      <c r="B3" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
     </row>
     <row r="5" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="53"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
@@ -1789,21 +1750,21 @@
       <c r="E11" s="8"/>
     </row>
     <row r="12" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="63"/>
     </row>
     <row r="13" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="53"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
     </row>
     <row r="15" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="20" t="s">
@@ -1812,54 +1773,54 @@
       <c r="C15" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="61" t="s">
+      <c r="D15" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="62"/>
+      <c r="E15" s="54"/>
     </row>
     <row r="16" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="64"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
     </row>
     <row r="17" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="64"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="56"/>
     </row>
     <row r="18" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="64"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
     </row>
     <row r="19" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="64"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
     </row>
     <row r="20" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="58"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B14:E14"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1887,7 +1848,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:D4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1921,14 +1882,14 @@
       </c>
       <c r="B2" s="74"/>
       <c r="C2" s="75" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2" s="76"/>
       <c r="E2" s="29" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="75" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G2" s="77"/>
       <c r="H2" s="78"/>
@@ -2010,13 +1971,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E9" s="32" t="s">
         <v>35</v>
@@ -2032,13 +1993,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E10" s="32" t="s">
         <v>35</v>
@@ -2054,13 +2015,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11" s="32"/>
       <c r="F11" s="43"/>
@@ -2072,13 +2033,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C12" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E12" s="32" t="s">
         <v>35</v>
@@ -2136,11 +2097,11 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2348A1D5-4253-4771-A133-25F9BE04457B}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G51" sqref="G51"/>
+      <pane ySplit="3" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2158,17 +2119,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="103" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
+      <c r="A1" s="86" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="4"/>
@@ -2204,923 +2165,330 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="102"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
     </row>
     <row r="5" spans="1:9" s="46" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="88">
+      <c r="A5" s="87">
         <v>1</v>
       </c>
       <c r="B5" s="99" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="91" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="94" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="85" t="s">
-        <v>75</v>
+        <v>70</v>
+      </c>
+      <c r="C5" s="90" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="93" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="96" t="s">
+        <v>79</v>
       </c>
       <c r="F5" s="47">
         <v>1</v>
       </c>
       <c r="G5" s="44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H5" s="39"/>
       <c r="I5" s="39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="89"/>
+      <c r="A6" s="88"/>
       <c r="B6" s="100"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="86"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="97"/>
       <c r="F6" s="47">
         <v>2</v>
       </c>
       <c r="G6" s="45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H6" s="43"/>
       <c r="I6" s="43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="46" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="90"/>
-      <c r="B7" s="104"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="87"/>
+      <c r="A7" s="89"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="98"/>
       <c r="F7" s="47">
         <v>3</v>
       </c>
       <c r="G7" s="48" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H7" s="32"/>
       <c r="I7" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="46" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="88">
+      <c r="A8" s="87">
         <v>2</v>
       </c>
-      <c r="B8" s="91" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="91" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="94" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="85" t="s">
-        <v>80</v>
+      <c r="B8" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="96" t="s">
+        <v>83</v>
       </c>
       <c r="F8" s="47">
         <v>1</v>
       </c>
       <c r="G8" s="44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H8" s="39"/>
       <c r="I8" s="39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="89"/>
-      <c r="B9" s="92"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="86"/>
+      <c r="A9" s="88"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="97"/>
       <c r="F9" s="47">
         <v>2</v>
       </c>
       <c r="G9" s="45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H9" s="43"/>
       <c r="I9" s="43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="46" customFormat="1" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="89"/>
-      <c r="B10" s="92"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="86"/>
+      <c r="A10" s="88"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="97"/>
       <c r="F10" s="47">
         <v>3</v>
       </c>
       <c r="G10" s="45" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H10" s="43"/>
       <c r="I10" s="43" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="46" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="90"/>
-      <c r="B11" s="92"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="87"/>
+      <c r="A11" s="89"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="98"/>
       <c r="F11" s="47">
         <v>4</v>
       </c>
       <c r="G11" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="H11" s="32"/>
+        <v>82</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>84</v>
+      </c>
       <c r="I11" s="32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="46" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="88">
-        <v>3</v>
-      </c>
-      <c r="B12" s="92"/>
-      <c r="C12" s="91" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" s="94" t="s">
+      <c r="A12" s="87">
+        <v>2</v>
+      </c>
+      <c r="B12" s="90" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="90" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="85" t="s">
-        <v>81</v>
+      <c r="E12" s="96" t="s">
+        <v>85</v>
       </c>
       <c r="F12" s="47">
         <v>1</v>
       </c>
       <c r="G12" s="44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H12" s="39"/>
       <c r="I12" s="39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="89"/>
-      <c r="B13" s="92"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="86"/>
+      <c r="A13" s="88"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="97"/>
       <c r="F13" s="47">
         <v>2</v>
       </c>
       <c r="G13" s="45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H13" s="43"/>
       <c r="I13" s="43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="46" customFormat="1" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="89"/>
-      <c r="B14" s="92"/>
-      <c r="C14" s="92"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="86"/>
+      <c r="A14" s="88"/>
+      <c r="B14" s="91"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="97"/>
       <c r="F14" s="47">
         <v>3</v>
       </c>
       <c r="G14" s="45" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H14" s="43"/>
       <c r="I14" s="43" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="46" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="90"/>
-      <c r="B15" s="92"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="87"/>
+      <c r="A15" s="89"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="98"/>
       <c r="F15" s="47">
         <v>4</v>
       </c>
       <c r="G15" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="H15" s="32"/>
+      <c r="H15" s="32" t="s">
+        <v>86</v>
+      </c>
       <c r="I15" s="32" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="46" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="88">
-        <v>4</v>
-      </c>
-      <c r="B16" s="92"/>
-      <c r="C16" s="91" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="94" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="85" t="s">
-        <v>84</v>
+      <c r="A16" s="87">
+        <v>21</v>
+      </c>
+      <c r="B16" s="99" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="93" t="s">
+        <v>87</v>
       </c>
       <c r="F16" s="47">
         <v>1</v>
       </c>
       <c r="G16" s="44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H16" s="39"/>
       <c r="I16" s="39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="40" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="88"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="42">
+        <v>2</v>
+      </c>
+      <c r="G17" s="45" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="89"/>
-      <c r="B17" s="92"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="47">
-        <v>2</v>
-      </c>
-      <c r="G17" s="45" t="s">
-        <v>59</v>
       </c>
       <c r="H17" s="43"/>
       <c r="I17" s="43" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="46" customFormat="1" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="89"/>
-      <c r="B18" s="92"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="47">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="46" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="88"/>
+      <c r="B18" s="100"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="41">
         <v>3</v>
       </c>
-      <c r="G18" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43" t="s">
+      <c r="G18" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="46" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="102"/>
+      <c r="B19" s="103"/>
+      <c r="C19" s="104"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="41">
+        <v>4</v>
+      </c>
+      <c r="G19" s="49" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="46" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="90"/>
-      <c r="B19" s="92"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="47">
-        <v>4</v>
-      </c>
-      <c r="G19" s="48" t="s">
-        <v>88</v>
       </c>
       <c r="H19" s="32"/>
       <c r="I19" s="32" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="46" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="88">
-        <v>5</v>
-      </c>
-      <c r="B20" s="92"/>
-      <c r="C20" s="91" t="s">
-        <v>86</v>
-      </c>
-      <c r="D20" s="94" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="85" t="s">
-        <v>87</v>
-      </c>
-      <c r="F20" s="47">
-        <v>1</v>
-      </c>
-      <c r="G20" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="89"/>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="47">
-        <v>2</v>
-      </c>
-      <c r="G21" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="46" customFormat="1" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="89"/>
-      <c r="B22" s="92"/>
-      <c r="C22" s="92"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="47">
-        <v>3</v>
-      </c>
-      <c r="G22" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="46" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="90"/>
-      <c r="B23" s="92"/>
-      <c r="C23" s="93"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="47">
-        <v>4</v>
-      </c>
-      <c r="G23" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="46" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="88">
-        <v>6</v>
-      </c>
-      <c r="B24" s="92"/>
-      <c r="C24" s="91" t="s">
-        <v>91</v>
-      </c>
-      <c r="D24" s="94" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" s="85" t="s">
-        <v>92</v>
-      </c>
-      <c r="F24" s="47">
-        <v>1</v>
-      </c>
-      <c r="G24" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="89"/>
-      <c r="B25" s="92"/>
-      <c r="C25" s="92"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="47">
-        <v>2</v>
-      </c>
-      <c r="G25" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="46" customFormat="1" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="89"/>
-      <c r="B26" s="92"/>
-      <c r="C26" s="92"/>
-      <c r="D26" s="95"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="47">
-        <v>3</v>
-      </c>
-      <c r="G26" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="46" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="90"/>
-      <c r="B27" s="97"/>
-      <c r="C27" s="93"/>
-      <c r="D27" s="96"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="47">
-        <v>4</v>
-      </c>
-      <c r="G27" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="46" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="88">
-        <v>2</v>
-      </c>
-      <c r="B28" s="91" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="91" t="s">
-        <v>95</v>
-      </c>
-      <c r="D28" s="94" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" s="85" t="s">
-        <v>80</v>
-      </c>
-      <c r="F28" s="47">
-        <v>1</v>
-      </c>
-      <c r="G28" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="89"/>
-      <c r="B29" s="92"/>
-      <c r="C29" s="92"/>
-      <c r="D29" s="95"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="47">
-        <v>2</v>
-      </c>
-      <c r="G29" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" s="46" customFormat="1" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="89"/>
-      <c r="B30" s="92"/>
-      <c r="C30" s="92"/>
-      <c r="D30" s="95"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="47">
-        <v>3</v>
-      </c>
-      <c r="G30" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="46" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="90"/>
-      <c r="B31" s="92"/>
-      <c r="C31" s="93"/>
-      <c r="D31" s="96"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="47">
-        <v>4</v>
-      </c>
-      <c r="G31" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="46" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="88">
-        <v>3</v>
-      </c>
-      <c r="B32" s="92"/>
-      <c r="C32" s="91" t="s">
-        <v>96</v>
-      </c>
-      <c r="D32" s="94" t="s">
-        <v>70</v>
-      </c>
-      <c r="E32" s="85" t="s">
-        <v>81</v>
-      </c>
-      <c r="F32" s="47">
-        <v>1</v>
-      </c>
-      <c r="G32" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="89"/>
-      <c r="B33" s="92"/>
-      <c r="C33" s="92"/>
-      <c r="D33" s="95"/>
-      <c r="E33" s="86"/>
-      <c r="F33" s="47">
-        <v>2</v>
-      </c>
-      <c r="G33" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" s="46" customFormat="1" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="89"/>
-      <c r="B34" s="92"/>
-      <c r="C34" s="92"/>
-      <c r="D34" s="95"/>
-      <c r="E34" s="86"/>
-      <c r="F34" s="47">
-        <v>3</v>
-      </c>
-      <c r="G34" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" s="46" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="90"/>
-      <c r="B35" s="92"/>
-      <c r="C35" s="93"/>
-      <c r="D35" s="96"/>
-      <c r="E35" s="87"/>
-      <c r="F35" s="47">
-        <v>4</v>
-      </c>
-      <c r="G35" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" s="46" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="88">
-        <v>4</v>
-      </c>
-      <c r="B36" s="92"/>
-      <c r="C36" s="91" t="s">
-        <v>97</v>
-      </c>
-      <c r="D36" s="94" t="s">
-        <v>70</v>
-      </c>
-      <c r="E36" s="85" t="s">
-        <v>84</v>
-      </c>
-      <c r="F36" s="47">
-        <v>1</v>
-      </c>
-      <c r="G36" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="H36" s="39"/>
-      <c r="I36" s="39" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="89"/>
-      <c r="B37" s="92"/>
-      <c r="C37" s="92"/>
-      <c r="D37" s="95"/>
-      <c r="E37" s="86"/>
-      <c r="F37" s="47">
-        <v>2</v>
-      </c>
-      <c r="G37" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" s="46" customFormat="1" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="89"/>
-      <c r="B38" s="92"/>
-      <c r="C38" s="92"/>
-      <c r="D38" s="95"/>
-      <c r="E38" s="86"/>
-      <c r="F38" s="47">
-        <v>3</v>
-      </c>
-      <c r="G38" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="H38" s="43"/>
-      <c r="I38" s="43" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" s="46" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="90"/>
-      <c r="B39" s="92"/>
-      <c r="C39" s="93"/>
-      <c r="D39" s="96"/>
-      <c r="E39" s="87"/>
-      <c r="F39" s="47">
-        <v>4</v>
-      </c>
-      <c r="G39" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" s="46" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="88">
-        <v>5</v>
-      </c>
-      <c r="B40" s="92"/>
-      <c r="C40" s="91" t="s">
-        <v>98</v>
-      </c>
-      <c r="D40" s="94" t="s">
-        <v>70</v>
-      </c>
-      <c r="E40" s="85" t="s">
-        <v>87</v>
-      </c>
-      <c r="F40" s="47">
-        <v>1</v>
-      </c>
-      <c r="G40" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="H40" s="39"/>
-      <c r="I40" s="39" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="89"/>
-      <c r="B41" s="92"/>
-      <c r="C41" s="92"/>
-      <c r="D41" s="95"/>
-      <c r="E41" s="86"/>
-      <c r="F41" s="47">
-        <v>2</v>
-      </c>
-      <c r="G41" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="H41" s="43"/>
-      <c r="I41" s="43" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" s="46" customFormat="1" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="89"/>
-      <c r="B42" s="92"/>
-      <c r="C42" s="92"/>
-      <c r="D42" s="95"/>
-      <c r="E42" s="86"/>
-      <c r="F42" s="47">
-        <v>3</v>
-      </c>
-      <c r="G42" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="H42" s="43"/>
-      <c r="I42" s="43" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" s="46" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="90"/>
-      <c r="B43" s="92"/>
-      <c r="C43" s="93"/>
-      <c r="D43" s="96"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="47">
-        <v>4</v>
-      </c>
-      <c r="G43" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="H43" s="32"/>
-      <c r="I43" s="32" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" s="46" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="88">
-        <v>6</v>
-      </c>
-      <c r="B44" s="92"/>
-      <c r="C44" s="91" t="s">
-        <v>99</v>
-      </c>
-      <c r="D44" s="94" t="s">
-        <v>70</v>
-      </c>
-      <c r="E44" s="85" t="s">
-        <v>92</v>
-      </c>
-      <c r="F44" s="47">
-        <v>1</v>
-      </c>
-      <c r="G44" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="H44" s="39"/>
-      <c r="I44" s="39" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="89"/>
-      <c r="B45" s="92"/>
-      <c r="C45" s="92"/>
-      <c r="D45" s="95"/>
-      <c r="E45" s="86"/>
-      <c r="F45" s="47">
-        <v>2</v>
-      </c>
-      <c r="G45" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="H45" s="43"/>
-      <c r="I45" s="43" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" s="46" customFormat="1" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="89"/>
-      <c r="B46" s="92"/>
-      <c r="C46" s="92"/>
-      <c r="D46" s="95"/>
-      <c r="E46" s="86"/>
-      <c r="F46" s="47">
-        <v>3</v>
-      </c>
-      <c r="G46" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="H46" s="43"/>
-      <c r="I46" s="43" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" s="46" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="90"/>
-      <c r="B47" s="97"/>
-      <c r="C47" s="93"/>
-      <c r="D47" s="96"/>
-      <c r="E47" s="87"/>
-      <c r="F47" s="47">
-        <v>4</v>
-      </c>
-      <c r="G47" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="H47" s="32"/>
-      <c r="I47" s="32" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" s="46" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="88">
-        <v>21</v>
-      </c>
-      <c r="B48" s="99" t="s">
-        <v>56</v>
-      </c>
-      <c r="C48" s="91" t="s">
-        <v>74</v>
-      </c>
-      <c r="D48" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="E48" s="94" t="s">
-        <v>75</v>
-      </c>
-      <c r="F48" s="47">
-        <v>1</v>
-      </c>
-      <c r="G48" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="H48" s="39"/>
-      <c r="I48" s="39" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" s="40" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="89"/>
-      <c r="B49" s="100"/>
-      <c r="C49" s="92"/>
-      <c r="D49" s="95"/>
-      <c r="E49" s="95"/>
-      <c r="F49" s="42">
-        <v>2</v>
-      </c>
-      <c r="G49" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="H49" s="43"/>
-      <c r="I49" s="43" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" s="46" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="89"/>
-      <c r="B50" s="100"/>
-      <c r="C50" s="92"/>
-      <c r="D50" s="95"/>
-      <c r="E50" s="95"/>
-      <c r="F50" s="41">
-        <v>3</v>
-      </c>
-      <c r="G50" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="H50" s="32"/>
-      <c r="I50" s="32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" s="46" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="98"/>
-      <c r="B51" s="101"/>
-      <c r="C51" s="97"/>
-      <c r="D51" s="96"/>
-      <c r="E51" s="96"/>
-      <c r="F51" s="41">
-        <v>4</v>
-      </c>
-      <c r="G51" s="49" t="s">
-        <v>100</v>
-      </c>
-      <c r="H51" s="32"/>
-      <c r="I51" s="32" t="s">
-        <v>65</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="54">
+  <mergeCells count="22">
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="B8:B11"/>
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A8:A11"/>
@@ -3132,49 +2500,6 @@
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="E5:E7"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="E48:E51"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="B8:B27"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B28:B47"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="E32:E35"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="E36:E39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="E40:E43"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="E44:E47"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Improgress/2. Artifact and Deliverable/Test case/K22T1_TeamBDS_ TC_Xemchinhsachcongty.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Test case/K22T1_TeamBDS_ TC_Xemchinhsachcongty.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Test case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8F91BC-813D-4772-91AF-631AFB5CDB01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93061089-642D-4C55-9289-AD02C03065DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{DC4DB269-603C-4B5B-A498-B166C8A18B92}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Test Cases" sheetId="5" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="7" state="hidden" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>Author</t>
   </si>
@@ -230,9 +230,6 @@
     <t xml:space="preserve">Trịnh như Phương </t>
   </si>
   <si>
-    <t xml:space="preserve">User đăng nhập vào App bất Động sản bằng tài khoản cá nhân </t>
-  </si>
-  <si>
     <t xml:space="preserve">Hiển thỉ giao diện trang chủ </t>
   </si>
   <si>
@@ -246,30 +243,6 @@
   </si>
   <si>
     <t>for BDS</t>
-  </si>
-  <si>
-    <t>hiệu ứng trượt - nên hoạt động trong một nét đơn, màn hình tiếp theo phải vào độ phân giải màn hình mà không bị biến dạng</t>
-  </si>
-  <si>
-    <t>Kiểm tra hiệu ứng trượt - nên hoạt động trong một nét đơn, màn hình tiếp theo phải vào độ phân giải màn hình mà không bị biến dạng</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> hiệu ứng trượt - nên hoạt động trong một nét đơn, màn hình tiếp theo phải vào độ phân giải màn hình mà không bị biến dạng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xem Chính sach công ty </t>
-  </si>
-  <si>
-    <t>Test Cases for ''Xem chính sách công ty    "</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiển thị các mục chính sách trong công ty </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiển thị thông tin bằng hình anh trong  từng mục chính sách công ty </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiện thị hình ảnh chất lượng </t>
   </si>
   <si>
     <t>TR-BDS-XCSCT-1</t>
@@ -293,13 +266,6 @@
 - Lịch nghỉ lễ 
 - Bổ nhiệm nhân sự 
 - Hoạt động team buidling </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiển thị hình ảnh trong  mục chính sách  : 
-- Quy định công tác phí </t>
-  </si>
-  <si>
-    <t>Trong chính sách công ty  , nhấn chọn các mục để xem các hình ảnh</t>
   </si>
   <si>
     <t>Hiển thị giao diên các mục chính sách  : 
@@ -311,36 +277,12 @@
 ….</t>
   </si>
   <si>
-    <t>Có các mục chính sách  : 
-- Quy định công tác phí 
-- Chế độ lương thưởng
-- Lịch nghỉ lễ 
-- Bổ nhiệm nhân sự 
-- Hoạt động team buidling …....</t>
-  </si>
-  <si>
-    <t>TR-BDS-XDSNS-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiển thị hình ảnh trong  mục chính sách  : 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trong chính sách công ty  , nhấn chọn chính sách </t>
-  </si>
-  <si>
     <t xml:space="preserve">Có thông tin hình ảnh trong  mục chính sách  : 
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Quy định công tác phí </t>
-  </si>
-  <si>
     <t xml:space="preserve">Có thông tin hình ảnh trong  mục chính sách  : 
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">quy dinh công tác phí </t>
   </si>
   <si>
     <t xml:space="preserve">Có các mục chính sách  : 
@@ -349,6 +291,75 @@
 - Lịch nghỉ lễ 
 - Bổ nhiệm nhân sự 
 - Hoạt động team buidling ….. </t>
+  </si>
+  <si>
+    <t>Xem Chính sach công ty Web</t>
+  </si>
+  <si>
+    <t>TR-BDS-XCSCTW-1</t>
+  </si>
+  <si>
+    <t>TR-BDS-XCSCTW-2</t>
+  </si>
+  <si>
+    <t>TR-BDS-XCSCTW-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị các button : xóa , sửa  ở cột cuối cùng của danh sách </t>
+  </si>
+  <si>
+    <t>Có tên và hình ảnh  các chính sách  : 
+- Quy định công tác phí 
+- Chế độ lương thưởng
+- Lịch nghỉ lễ 
+- Bổ nhiệm nhân sự 
+- Hoạt động team buidling …....</t>
+  </si>
+  <si>
+    <t>TR-BDS-XCSCTW-4</t>
+  </si>
+  <si>
+    <t>TR-BDS-XDSNSW-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị  hình anh đi kèm trong từng  chính sách công ty </t>
+  </si>
+  <si>
+    <t>Hiện thị hình ảnh chất lượng đúng kích thước tiêu chuân</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin đăng nhập vào WebAdmin bất Động sản bằng tài khoản cá nhân </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trong danh sách chính sách </t>
+  </si>
+  <si>
+    <t>Trong danh sách chính sách công ty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị hình ảnh trong từng chính sách  : 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trong danh sách  chính sách công ty </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị danh sách chính sách trong công ty bao gồm : tên chính sách , hình ảnh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểm tra hiển thị danh sách chính sách trong công ty bao gồm : tên chính sách , hình ảnh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Kiểm tra Hiển thị thông tin bằng hình anh trong  từng mục chính sách công ty </t>
+  </si>
+  <si>
+    <t>'Kiểm tra hiện thị hình ảnh chất lượng đúng kích thước tiêu chuân</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Kiểm tra hiển thị các button : xóa , sửa  ở cột cuối cùng của danh sách </t>
+  </si>
+  <si>
+    <t>Test Cases for ''Xem chính sách công ty Web   "</t>
   </si>
 </sst>
 </file>
@@ -1149,6 +1160,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1170,30 +1205,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1254,64 +1265,64 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1638,7 +1649,7 @@
   <dimension ref="B1:E20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1653,31 +1664,31 @@
   <sheetData>
     <row r="1" spans="2:5" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="2:5" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="64" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
+      <c r="B3" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
     </row>
     <row r="5" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="53"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
@@ -1698,7 +1709,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="12">
-        <v>43809</v>
+        <v>43535</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>55</v>
@@ -1750,21 +1761,21 @@
       <c r="E11" s="8"/>
     </row>
     <row r="12" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="63"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
     </row>
     <row r="13" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="53"/>
     </row>
     <row r="15" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="20" t="s">
@@ -1773,54 +1784,54 @@
       <c r="C15" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="53" t="s">
+      <c r="D15" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="54"/>
+      <c r="E15" s="62"/>
     </row>
     <row r="16" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="64"/>
     </row>
     <row r="17" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="56"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="64"/>
     </row>
     <row r="18" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="64"/>
     </row>
     <row r="19" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="56"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="64"/>
     </row>
     <row r="20" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="50"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="52"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B14:E14"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1848,7 +1859,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1882,14 +1893,14 @@
       </c>
       <c r="B2" s="74"/>
       <c r="C2" s="75" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2" s="76"/>
       <c r="E2" s="29" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="75" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G2" s="77"/>
       <c r="H2" s="78"/>
@@ -1966,18 +1977,18 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="27">
         <v>1</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C9" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="E9" s="32" t="s">
         <v>35</v>
@@ -1993,13 +2004,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C10" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="E10" s="32" t="s">
         <v>35</v>
@@ -2010,36 +2021,40 @@
       <c r="G10" s="33"/>
       <c r="H10" s="17"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="27">
         <v>3</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C11" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="43"/>
+        <v>80</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="43" t="s">
+        <v>17</v>
+      </c>
       <c r="G11" s="33"/>
       <c r="H11" s="17"/>
     </row>
-    <row r="12" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A12" s="27">
         <v>4</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C12" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="E12" s="32" t="s">
         <v>35</v>
@@ -2100,8 +2115,8 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
+      <pane ySplit="3" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2119,17 +2134,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="86" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
+      <c r="A1" s="102" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="4"/>
@@ -2165,329 +2180,315 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
     </row>
     <row r="5" spans="1:9" s="46" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="87">
+      <c r="A5" s="88">
         <v>1</v>
       </c>
-      <c r="B5" s="99" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="90" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="93" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" s="96" t="s">
-        <v>79</v>
+      <c r="B5" s="98" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="85" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="91" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="94" t="s">
+        <v>76</v>
       </c>
       <c r="F5" s="47">
         <v>1</v>
       </c>
       <c r="G5" s="44" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="H5" s="39"/>
       <c r="I5" s="39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="88"/>
-      <c r="B6" s="100"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="97"/>
+      <c r="A6" s="89"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="95"/>
       <c r="F6" s="47">
         <v>2</v>
       </c>
       <c r="G6" s="45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H6" s="43"/>
       <c r="I6" s="43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="46" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="89"/>
-      <c r="B7" s="101"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="98"/>
+      <c r="A7" s="90"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="96"/>
       <c r="F7" s="47">
         <v>3</v>
       </c>
       <c r="G7" s="48" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="H7" s="32"/>
       <c r="I7" s="32" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="46" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="87">
+      <c r="A8" s="88">
         <v>2</v>
       </c>
-      <c r="B8" s="90" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="90" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="93" t="s">
+      <c r="B8" s="85" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="91" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="94" t="s">
         <v>68</v>
-      </c>
-      <c r="E8" s="96" t="s">
-        <v>83</v>
       </c>
       <c r="F8" s="47">
         <v>1</v>
       </c>
       <c r="G8" s="44" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="H8" s="39"/>
       <c r="I8" s="39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="88"/>
-      <c r="B9" s="91"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="97"/>
+      <c r="A9" s="89"/>
+      <c r="B9" s="86"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="95"/>
       <c r="F9" s="47">
         <v>2</v>
       </c>
       <c r="G9" s="45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H9" s="43"/>
       <c r="I9" s="43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="46" customFormat="1" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="88"/>
-      <c r="B10" s="91"/>
-      <c r="C10" s="91"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="97"/>
+      <c r="A10" s="89"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="95"/>
       <c r="F10" s="47">
         <v>3</v>
       </c>
       <c r="G10" s="45" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="H10" s="43"/>
       <c r="I10" s="43" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="46" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="89"/>
-      <c r="B11" s="91"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="98"/>
+      <c r="A11" s="90"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="96"/>
       <c r="F11" s="47">
         <v>4</v>
       </c>
       <c r="G11" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="H11" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="I11" s="32" t="s">
-        <v>81</v>
-      </c>
     </row>
     <row r="12" spans="1:9" s="46" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="87">
+      <c r="A12" s="88">
         <v>2</v>
       </c>
-      <c r="B12" s="90" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="90" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" s="93" t="s">
+      <c r="B12" s="85" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="85" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="91" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="94" t="s">
         <v>69</v>
-      </c>
-      <c r="E12" s="96" t="s">
-        <v>85</v>
       </c>
       <c r="F12" s="47">
         <v>1</v>
       </c>
       <c r="G12" s="44" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="H12" s="39"/>
       <c r="I12" s="39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="88"/>
-      <c r="B13" s="91"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="97"/>
+      <c r="A13" s="89"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="95"/>
       <c r="F13" s="47">
         <v>2</v>
       </c>
       <c r="G13" s="45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H13" s="43"/>
       <c r="I13" s="43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="46" customFormat="1" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="88"/>
-      <c r="B14" s="91"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="97"/>
+      <c r="A14" s="89"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="95"/>
       <c r="F14" s="47">
         <v>3</v>
       </c>
       <c r="G14" s="45" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="H14" s="43"/>
       <c r="I14" s="43" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="46" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="89"/>
-      <c r="B15" s="91"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="98"/>
+      <c r="A15" s="90"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="96"/>
       <c r="F15" s="47">
         <v>4</v>
       </c>
       <c r="G15" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="H15" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="I15" s="32" t="s">
-        <v>76</v>
+      <c r="H15" s="32"/>
+      <c r="I15" s="41" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="46" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="87">
+      <c r="A16" s="88">
         <v>21</v>
       </c>
-      <c r="B16" s="99" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="90" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="93" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="93" t="s">
-        <v>87</v>
+      <c r="B16" s="98" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="85" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="91" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="91" t="s">
+        <v>70</v>
       </c>
       <c r="F16" s="47">
         <v>1</v>
       </c>
       <c r="G16" s="44" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="H16" s="39"/>
       <c r="I16" s="39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="40" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="88"/>
-      <c r="B17" s="100"/>
-      <c r="C17" s="91"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="94"/>
+      <c r="A17" s="89"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
       <c r="F17" s="42">
         <v>2</v>
       </c>
       <c r="G17" s="45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H17" s="43"/>
       <c r="I17" s="43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="46" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="88"/>
-      <c r="B18" s="100"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="94"/>
+      <c r="A18" s="89"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
       <c r="F18" s="41">
         <v>3</v>
       </c>
       <c r="G18" s="48" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="H18" s="32"/>
       <c r="I18" s="32" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="46" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="102"/>
-      <c r="B19" s="103"/>
-      <c r="C19" s="104"/>
-      <c r="D19" s="95"/>
-      <c r="E19" s="95"/>
+      <c r="A19" s="97"/>
+      <c r="B19" s="100"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
       <c r="F19" s="41">
         <v>4</v>
       </c>
       <c r="G19" s="49" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H19" s="32"/>
-      <c r="I19" s="32" t="s">
-        <v>64</v>
+      <c r="I19" s="41" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="E16:E19"/>
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A1:I1"/>
@@ -2500,6 +2501,16 @@
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="D12:D15"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
